--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3361.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3361.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21894739247821</v>
+        <v>0.7505792379379272</v>
       </c>
       <c r="B1">
-        <v>2.594430362172957</v>
+        <v>3.100512504577637</v>
       </c>
       <c r="C1">
-        <v>5.676335639472152</v>
+        <v>2.903003692626953</v>
       </c>
       <c r="D1">
-        <v>2.3570898111087</v>
+        <v>2.440034151077271</v>
       </c>
       <c r="E1">
-        <v>1.172382505414566</v>
+        <v>2.13351035118103</v>
       </c>
     </row>
   </sheetData>
